--- a/biology/Médecine/Jean-Pierre_Kernéis/Jean-Pierre_Kernéis.xlsx
+++ b/biology/Médecine/Jean-Pierre_Kernéis/Jean-Pierre_Kernéis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kern%C3%A9is</t>
+          <t>Jean-Pierre_Kernéis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Kernéis est un médecin et historien français né le 26 décembre 1918 à Brest et mort le 5 octobre 1999 à Nantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kern%C3%A9is</t>
+          <t>Jean-Pierre_Kernéis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Eugène Kernéis est le fils d'un officier marinier. Il épouse Monique Garnier, fille de Maurice Garnier, directeur des conserveries Cassegrain, et d'Anne-Marie Blanlœil.
 Docteur et agrégé en médecine, il est doyen de la faculté de médecine de Nantes (1967-1970) et premier président de l'Université de Nantes (1971-1975), nouvellement recréée.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kern%C3%A9is</t>
+          <t>Jean-Pierre_Kernéis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titres et travaux du président Jean-Pierre Kernéis (1981)
 Histoire de la Médecine navale à travers les "chirurgien navigans"</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kern%C3%A9is</t>
+          <t>Jean-Pierre_Kernéis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Commandeur de la Légion d'honneur
 Officier de l'ordre national du Mérite
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kern%C3%A9is</t>
+          <t>Jean-Pierre_Kernéis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Passage Jean-Pierre-Kernéis, à Nantes
 Amphithéâtre Kernéis, au CHU de Nantes</t>
